--- a/biology/Botanique/Pitey/Pitey.xlsx
+++ b/biology/Botanique/Pitey/Pitey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pitey (lo pitèir en gascon) est une jambe de bois de pin de deux à trois mètres de haut flanquée de cale-pieds, servant aux gemmeurs des Landes de Gascogne à atteindre le haut des pins pour en rafraîchir les cares.
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l’origine, le terme de pitey désigne tout ce qui hausse : de la tour de la palombière au mirador de surveillance de la forêt des Landes. Il aurait pu désigner les échasses si elles n’avaient reçu le nom spécifique de chancas (tchanques). L’usage a fini par réserver le nom à l’échelle du résinier.
 Ne pouvant transporter un tabouret, une échelle classique, et n’utilisant pas d’échasses comme les bergers landais les précédant, les gemmeurs se servaient de cette échelle à montant unique et équipée de paousse pé (cale-pieds). Ils en calaient le pied dans le sable et appuyaient le haut au tronc des pins à gemmer pour les piquer à hauteur convenable.
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Daney, Dictionnaire de la Lande française, Éditions Loubatières, Portet sur Garonne, 1992
 L’Almanach du Landais 2008, Éditions CPE
